--- a/data_exports/enrollments_raw_1960586.xlsx
+++ b/data_exports/enrollments_raw_1960586.xlsx
@@ -5553,7 +5553,7 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>2025-07-11T19:01:58Z</t>
+          <t>2025-07-11T19:20:36Z</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr"/>

--- a/data_exports/enrollments_raw_1960586.xlsx
+++ b/data_exports/enrollments_raw_1960586.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA57"/>
+  <dimension ref="A1:AA58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -622,16 +622,16 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-07-10T01:19:50Z</t>
+          <t>2025-07-21T15:04:23Z</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>3961</v>
+        <v>7628</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5461105', 'current_grade': None, 'current_score': 84.21, 'final_grade': None, 'final_score': 15.75, 'unposted_current_score': 84.21, 'unposted_current_grade': None, 'unposted_final_score': 15.75, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5461105', 'current_grade': None, 'current_score': 94.72, 'final_grade': None, 'final_score': 29.81, 'unposted_current_score': 94.72, 'unposted_current_grade': None, 'unposted_final_score': 29.81, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -719,16 +719,16 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-07-10T19:02:31Z</t>
+          <t>2025-07-19T19:37:50Z</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>18048</v>
+        <v>19937</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5430421', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 21.75, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 21.75, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5430421', 'current_grade': None, 'current_score': 96.19, 'final_grade': None, 'final_score': 30.37, 'unposted_current_score': 96.19, 'unposted_current_grade': None, 'unposted_final_score': 30.37, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -816,16 +816,16 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2025-07-09T19:24:46Z</t>
+          <t>2025-07-21T14:28:25Z</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr"/>
       <c r="R4" t="n">
-        <v>8184</v>
+        <v>8781</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5463183', 'current_grade': None, 'current_score': 85.92, 'final_grade': None, 'final_score': 17.65, 'unposted_current_score': 85.92, 'unposted_current_grade': None, 'unposted_final_score': 17.65, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5463183', 'current_grade': None, 'current_score': 83.33, 'final_grade': None, 'final_score': 23.18, 'unposted_current_score': 83.33, 'unposted_current_grade': None, 'unposted_final_score': 23.18, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -913,16 +913,16 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-07-11T15:04:22Z</t>
+          <t>2025-07-21T14:28:15Z</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
-        <v>14013</v>
+        <v>15237</v>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5455193', 'current_grade': None, 'current_score': 91.7, 'final_grade': None, 'final_score': 49.62, 'unposted_current_score': 91.7, 'unposted_current_grade': None, 'unposted_final_score': 49.62, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5455193', 'current_grade': None, 'current_score': 95.89, 'final_grade': None, 'final_score': 45.68, 'unposted_current_score': 95.89, 'unposted_current_grade': None, 'unposted_final_score': 45.68, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -1010,16 +1010,16 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>2025-07-09T13:34:14Z</t>
+          <t>2025-07-21T14:23:45Z</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>1992</v>
+        <v>2134</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5430865', 'current_grade': None, 'current_score': 85.92, 'final_grade': None, 'final_score': 16.4, 'unposted_current_score': 85.92, 'unposted_current_grade': None, 'unposted_final_score': 16.4, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5430865', 'current_grade': None, 'current_score': 83.48, 'final_grade': None, 'final_score': 23.16, 'unposted_current_score': 83.48, 'unposted_current_grade': None, 'unposted_final_score': 23.16, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -1107,16 +1107,16 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2025-07-09T14:27:09Z</t>
+          <t>2025-07-20T15:55:47Z</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr"/>
       <c r="R7" t="n">
-        <v>3986</v>
+        <v>6549</v>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5455745', 'current_grade': None, 'current_score': 85.92, 'final_grade': None, 'final_score': 16.4, 'unposted_current_score': 85.92, 'unposted_current_grade': None, 'unposted_final_score': 16.4, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5455745', 'current_grade': None, 'current_score': 91.15, 'final_grade': None, 'final_score': 26.56, 'unposted_current_score': 91.15, 'unposted_current_grade': None, 'unposted_final_score': 26.56, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -1204,16 +1204,16 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2025-07-10T23:52:28Z</t>
+          <t>2025-07-21T03:34:27Z</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr"/>
       <c r="R8" t="n">
-        <v>10561</v>
+        <v>13405</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5460725', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 21.75, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 21.75, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5460725', 'current_grade': None, 'current_score': 97.39, 'final_grade': None, 'final_score': 47.09, 'unposted_current_score': 97.39, 'unposted_current_grade': None, 'unposted_final_score': 47.09, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -1301,16 +1301,16 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2025-07-10T17:41:26Z</t>
+          <t>2025-07-21T02:22:44Z</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>5996</v>
+        <v>11187</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5457355', 'current_grade': None, 'current_score': 77.02, 'final_grade': None, 'final_score': 13.02, 'unposted_current_score': 77.02, 'unposted_current_grade': None, 'unposted_final_score': 13.02, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5457355', 'current_grade': None, 'current_score': 41.62, 'final_grade': None, 'final_score': 18.37, 'unposted_current_score': 41.62, 'unposted_current_grade': None, 'unposted_final_score': 18.37, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1398,16 +1398,16 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>2025-07-11T15:13:56Z</t>
+          <t>2025-07-21T13:33:29Z</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>14426</v>
+        <v>18546</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5477453', 'current_grade': None, 'current_score': 89.97, 'final_grade': None, 'final_score': 17.94, 'unposted_current_score': 89.97, 'unposted_current_grade': None, 'unposted_final_score': 17.94, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5477453', 'current_grade': None, 'current_score': 89.13, 'final_grade': None, 'final_score': 25.23, 'unposted_current_score': 89.13, 'unposted_current_grade': None, 'unposted_final_score': 25.23, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1495,16 +1495,16 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2025-07-09T14:16:22Z</t>
+          <t>2025-07-21T15:07:41Z</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>11657</v>
+        <v>20279</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5459721', 'current_grade': None, 'current_score': 94.67, 'final_grade': None, 'final_score': 26.29, 'unposted_current_score': 94.67, 'unposted_current_grade': None, 'unposted_final_score': 26.29, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5459721', 'current_grade': None, 'current_score': 96.62, 'final_grade': None, 'final_score': 29.31, 'unposted_current_score': 96.62, 'unposted_current_grade': None, 'unposted_final_score': 29.31, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1592,7 +1592,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2025-07-11T17:28:16Z</t>
+          <t>2025-07-13T18:16:04Z</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr"/>
@@ -1601,7 +1601,7 @@
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5459685', 'current_grade': None, 'current_score': 92.42, 'final_grade': None, 'final_score': 25.63, 'unposted_current_score': 92.42, 'unposted_current_grade': None, 'unposted_final_score': 25.63, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5459685', 'current_grade': None, 'current_score': 77.04, 'final_grade': None, 'final_score': 20.63, 'unposted_current_score': 77.04, 'unposted_current_grade': None, 'unposted_final_score': 20.63, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1689,16 +1689,16 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>2025-07-11T02:17:55Z</t>
+          <t>2025-07-21T15:06:35Z</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>14056</v>
+        <v>20323</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5490299', 'current_grade': None, 'current_score': 95.03, 'final_grade': None, 'final_score': 24.86, 'unposted_current_score': 95.03, 'unposted_current_grade': None, 'unposted_final_score': 24.86, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5490299', 'current_grade': None, 'current_score': 99.64, 'final_grade': None, 'final_score': 34.63, 'unposted_current_score': 99.64, 'unposted_current_grade': None, 'unposted_final_score': 34.63, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1786,16 +1786,16 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2025-07-10T01:59:46Z</t>
+          <t>2025-07-21T14:52:44Z</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr"/>
       <c r="R14" t="n">
-        <v>4530</v>
+        <v>6859</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5477499', 'current_grade': None, 'current_score': 85.13, 'final_grade': None, 'final_score': 16.1, 'unposted_current_score': 85.13, 'unposted_current_grade': None, 'unposted_final_score': 16.1, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5477499', 'current_grade': None, 'current_score': 89.72, 'final_grade': None, 'final_score': 24.18, 'unposted_current_score': 89.72, 'unposted_current_grade': None, 'unposted_final_score': 24.18, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -1883,16 +1883,16 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>2025-07-09T19:35:12Z</t>
+          <t>2025-07-20T20:28:19Z</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr"/>
       <c r="R15" t="n">
-        <v>6004</v>
+        <v>8158</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5423489', 'current_grade': None, 'current_score': 85.92, 'final_grade': None, 'final_score': 16.4, 'unposted_current_score': 85.92, 'unposted_current_grade': None, 'unposted_final_score': 16.4, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5423489', 'current_grade': None, 'current_score': 84.45, 'final_grade': None, 'final_score': 24.03, 'unposted_current_score': 84.45, 'unposted_current_grade': None, 'unposted_final_score': 24.03, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -1980,16 +1980,16 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>2025-07-09T13:37:17Z</t>
+          <t>2025-07-21T13:24:00Z</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr"/>
       <c r="R16" t="n">
-        <v>7151</v>
+        <v>7792</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5472249', 'current_grade': None, 'current_score': 85.92, 'final_grade': None, 'final_score': 17.65, 'unposted_current_score': 85.92, 'unposted_current_grade': None, 'unposted_final_score': 17.65, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5472249', 'current_grade': None, 'current_score': 86.3, 'final_grade': None, 'final_score': 23.31, 'unposted_current_score': 86.3, 'unposted_current_grade': None, 'unposted_final_score': 23.31, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -2077,16 +2077,16 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2025-07-11T02:40:30Z</t>
+          <t>2025-07-21T14:50:13Z</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>10227</v>
+        <v>12398</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5463039', 'current_grade': None, 'current_score': 90.79, 'final_grade': None, 'final_score': 18.25, 'unposted_current_score': 90.79, 'unposted_current_grade': None, 'unposted_final_score': 18.25, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5463039', 'current_grade': None, 'current_score': 74.41, 'final_grade': None, 'final_score': 24.33, 'unposted_current_score': 74.41, 'unposted_current_grade': None, 'unposted_final_score': 24.33, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -2124,10 +2124,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>46316711</v>
+        <v>46509463</v>
       </c>
       <c r="B18" t="n">
-        <v>5447867</v>
+        <v>5459867</v>
       </c>
       <c r="C18" t="n">
         <v>1960586</v>
@@ -2139,12 +2139,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2025-05-14T15:25:08Z</t>
+          <t>2025-06-09T21:24:49Z</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2025-06-21T20:35:09Z</t>
+          <t>2025-07-11T21:24:39Z</t>
         </is>
       </c>
       <c r="G18" t="inlineStr"/>
@@ -2174,16 +2174,16 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2025-07-10T17:56:02Z</t>
+          <t>2025-07-18T04:57:14Z</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>5681</v>
+        <v>32144</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5447867', 'current_grade': None, 'current_score': 85.92, 'final_grade': None, 'final_score': 16.4, 'unposted_current_score': 85.92, 'unposted_current_grade': None, 'unposted_final_score': 16.4, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5459867', 'current_grade': None, 'current_score': 80.5, 'final_grade': None, 'final_score': 26.21, 'unposted_current_score': 80.5, 'unposted_current_grade': None, 'unposted_final_score': 26.21, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -2205,26 +2205,26 @@
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>U79139939</t>
+          <t>U20279434</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5447867</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5459867</t>
         </is>
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>{'id': 5447867, 'name': 'Gianmarco Garcia', 'created_at': '2024-11-18T17:07:50-05:00', 'sortable_name': 'Garcia, Gianmarco', 'short_name': 'Gianmarco Garcia', 'sis_user_id': 'U79139939', 'integration_id': None, 'login_id': 'gianmarcogarcia'}</t>
+          <t>{'id': 5459867, 'name': 'Dallas Fullwood', 'created_at': '2024-12-02T19:05:40-05:00', 'sortable_name': 'Fullwood, Dallas', 'short_name': 'Dallas Fullwood', 'sis_user_id': 'U20279434', 'integration_id': None, 'login_id': 'dsfullwood'}</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>46484583</v>
+        <v>46316711</v>
       </c>
       <c r="B19" t="n">
-        <v>5476707</v>
+        <v>5447867</v>
       </c>
       <c r="C19" t="n">
         <v>1960586</v>
@@ -2236,19 +2236,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2025-06-03T21:25:18Z</t>
+          <t>2025-05-14T15:25:08Z</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2025-06-03T21:25:18Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>2142791</v>
+        <v>2143883</v>
       </c>
       <c r="K19" t="n">
         <v>86643</v>
@@ -2271,16 +2271,16 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>2025-07-09T14:28:14Z</t>
+          <t>2025-07-21T14:28:57Z</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>60777</v>
+        <v>59051</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5476707', 'current_grade': None, 'current_score': 90.59, 'final_grade': None, 'final_score': 25.71, 'unposted_current_score': 90.59, 'unposted_current_grade': None, 'unposted_final_score': 25.71, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5447867', 'current_grade': None, 'current_score': 86.66, 'final_grade': None, 'final_score': 24.97, 'unposted_current_score': 86.66, 'unposted_current_grade': None, 'unposted_final_score': 24.97, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2296,32 +2296,32 @@
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr">
         <is>
-          <t>CGS2100.002U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>U56204068</t>
+          <t>U79139939</t>
         </is>
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5476707</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5447867</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>{'id': 5476707, 'name': 'Virginia Grosset', 'created_at': '2025-01-06T19:08:17-05:00', 'sortable_name': 'Grosset, Virginia', 'short_name': 'Virginia Grosset', 'sis_user_id': 'U56204068', 'integration_id': None, 'login_id': 'vgrosset'}</t>
+          <t>{'id': 5447867, 'name': 'Gianmarco Garcia', 'created_at': '2024-11-18T17:07:50-05:00', 'sortable_name': 'Garcia, Gianmarco', 'short_name': 'Gianmarco Garcia', 'sis_user_id': 'U79139939', 'integration_id': None, 'login_id': 'gianmarcogarcia'}</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>46302573</v>
+        <v>46484583</v>
       </c>
       <c r="B20" t="n">
-        <v>5446521</v>
+        <v>5476707</v>
       </c>
       <c r="C20" t="n">
         <v>1960586</v>
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2025-05-12T21:24:58Z</t>
+          <t>2025-06-03T21:25:18Z</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2025-06-21T20:35:09Z</t>
+          <t>2025-06-03T21:25:18Z</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>2143883</v>
+        <v>2142791</v>
       </c>
       <c r="K20" t="n">
         <v>86643</v>
@@ -2368,16 +2368,16 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>2025-07-10T00:56:48Z</t>
+          <t>2025-07-21T15:05:27Z</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>11064</v>
+        <v>64812</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5446521', 'current_grade': None, 'current_score': 82.5, 'final_grade': None, 'final_score': 15.1, 'unposted_current_score': 82.5, 'unposted_current_grade': None, 'unposted_final_score': 15.1, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5476707', 'current_grade': None, 'current_score': 91.19, 'final_grade': None, 'final_score': 37.34, 'unposted_current_score': 91.19, 'unposted_current_grade': None, 'unposted_final_score': 37.34, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2393,32 +2393,32 @@
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr">
         <is>
-          <t>CGS2100.021U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>U34028673</t>
+          <t>U56204068</t>
         </is>
       </c>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5446521</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5476707</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>{'id': 5446521, 'name': 'Parker Halsey', 'created_at': '2024-11-16T11:05:37-05:00', 'sortable_name': 'Halsey, Parker', 'short_name': 'Parker Halsey', 'sis_user_id': 'U34028673', 'integration_id': None, 'login_id': 'parkerhalsey'}</t>
+          <t>{'id': 5476707, 'name': 'Virginia Grosset', 'created_at': '2025-01-06T19:08:17-05:00', 'sortable_name': 'Grosset, Virginia', 'short_name': 'Virginia Grosset', 'sis_user_id': 'U56204068', 'integration_id': None, 'login_id': 'vgrosset'}</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>46312525</v>
+        <v>46302573</v>
       </c>
       <c r="B21" t="n">
-        <v>5444045</v>
+        <v>5446521</v>
       </c>
       <c r="C21" t="n">
         <v>1960586</v>
@@ -2430,19 +2430,19 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2025-05-13T21:24:28Z</t>
+          <t>2025-05-12T21:24:58Z</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2025-05-13T21:24:28Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>2142791</v>
+        <v>2143883</v>
       </c>
       <c r="K21" t="n">
         <v>86643</v>
@@ -2465,16 +2465,16 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2025-07-09T14:08:52Z</t>
+          <t>2025-07-21T14:53:57Z</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>9136</v>
+        <v>12774</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5444045', 'current_grade': None, 'current_score': 89.97, 'final_grade': None, 'final_score': 19.19, 'unposted_current_score': 89.97, 'unposted_current_grade': None, 'unposted_final_score': 19.19, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5446521', 'current_grade': None, 'current_score': 79.69, 'final_grade': None, 'final_score': 22.72, 'unposted_current_score': 79.69, 'unposted_current_grade': None, 'unposted_final_score': 22.72, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -2490,32 +2490,32 @@
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr">
         <is>
-          <t>CGS2100.002U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>U27804657</t>
+          <t>U34028673</t>
         </is>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5444045</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5446521</t>
         </is>
       </c>
       <c r="AA21" t="inlineStr">
         <is>
-          <t>{'id': 5444045, 'name': 'Scott Hodges', 'created_at': '2024-11-13T15:07:20-05:00', 'sortable_name': 'Hodges, Scott', 'short_name': 'Scott Hodges', 'sis_user_id': 'U27804657', 'integration_id': None, 'login_id': 'shodges28'}</t>
+          <t>{'id': 5446521, 'name': 'Parker Halsey', 'created_at': '2024-11-16T11:05:37-05:00', 'sortable_name': 'Halsey, Parker', 'short_name': 'Parker Halsey', 'sis_user_id': 'U34028673', 'integration_id': None, 'login_id': 'parkerhalsey'}</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>46297431</v>
+        <v>46312525</v>
       </c>
       <c r="B22" t="n">
-        <v>5444997</v>
+        <v>5444045</v>
       </c>
       <c r="C22" t="n">
         <v>1960586</v>
@@ -2527,19 +2527,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>2025-05-12T17:24:21Z</t>
+          <t>2025-05-13T21:24:28Z</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2025-06-21T20:35:09Z</t>
+          <t>2025-05-13T21:24:28Z</t>
         </is>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>2143883</v>
+        <v>2142791</v>
       </c>
       <c r="K22" t="n">
         <v>86643</v>
@@ -2562,16 +2562,16 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>2025-07-11T14:53:25Z</t>
+          <t>2025-07-21T14:26:27Z</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>4324</v>
+        <v>9904</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5444997', 'current_grade': None, 'current_score': 91.77, 'final_grade': None, 'final_score': 28.15, 'unposted_current_score': 91.77, 'unposted_current_grade': None, 'unposted_final_score': 28.15, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5444045', 'current_grade': None, 'current_score': 98.19, 'final_grade': None, 'final_score': 37.16, 'unposted_current_score': 98.19, 'unposted_current_grade': None, 'unposted_final_score': 37.16, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -2587,32 +2587,32 @@
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr">
         <is>
-          <t>CGS2100.021U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>U87264562</t>
+          <t>U27804657</t>
         </is>
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5444997</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5444045</t>
         </is>
       </c>
       <c r="AA22" t="inlineStr">
         <is>
-          <t>{'id': 5444997, 'name': 'Marissa Holgrimson', 'created_at': '2024-11-14T15:05:47-05:00', 'sortable_name': 'Holgrimson, Marissa', 'short_name': 'Marissa Holgrimson', 'sis_user_id': 'U87264562', 'integration_id': None, 'login_id': 'marissaholgrimson', 'pronouns': 'she/her/hers'}</t>
+          <t>{'id': 5444045, 'name': 'Scott Hodges', 'created_at': '2024-11-13T15:07:20-05:00', 'sortable_name': 'Hodges, Scott', 'short_name': 'Scott Hodges', 'sis_user_id': 'U27804657', 'integration_id': None, 'login_id': 'shodges28'}</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>46475051</v>
+        <v>46297431</v>
       </c>
       <c r="B23" t="n">
-        <v>5435497</v>
+        <v>5444997</v>
       </c>
       <c r="C23" t="n">
         <v>1960586</v>
@@ -2624,19 +2624,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>2025-06-02T15:25:12Z</t>
+          <t>2025-05-12T17:24:21Z</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>2025-06-02T15:25:12Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>2142791</v>
+        <v>2143883</v>
       </c>
       <c r="K23" t="n">
         <v>86643</v>
@@ -2659,16 +2659,16 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>2025-07-11T18:47:55Z</t>
+          <t>2025-07-18T21:33:11Z</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
-        <v>19394</v>
+        <v>5995</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5435497', 'current_grade': None, 'current_score': 89.52, 'final_grade': None, 'final_score': 23.55, 'unposted_current_score': 89.52, 'unposted_current_grade': None, 'unposted_final_score': 23.55, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5444997', 'current_grade': None, 'current_score': 94.32, 'final_grade': None, 'final_score': 27.42, 'unposted_current_score': 94.32, 'unposted_current_grade': None, 'unposted_final_score': 27.42, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -2684,32 +2684,32 @@
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr">
         <is>
-          <t>CGS2100.002U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>U41333662</t>
+          <t>U87264562</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5435497</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5444997</t>
         </is>
       </c>
       <c r="AA23" t="inlineStr">
         <is>
-          <t>{'id': 5435497, 'name': 'Brandon Jackson', 'created_at': '2024-11-05T11:07:04-05:00', 'sortable_name': 'Jackson, Brandon', 'short_name': 'Brandon Jackson', 'sis_user_id': 'U41333662', 'integration_id': None, 'login_id': 'brandonjackson'}</t>
+          <t>{'id': 5444997, 'name': 'Marissa Holgrimson', 'created_at': '2024-11-14T15:05:47-05:00', 'sortable_name': 'Holgrimson, Marissa', 'short_name': 'Marissa Holgrimson', 'sis_user_id': 'U87264562', 'integration_id': None, 'login_id': 'marissaholgrimson', 'pronouns': 'she/her/hers'}</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>46297439</v>
+        <v>46475051</v>
       </c>
       <c r="B24" t="n">
-        <v>5464229</v>
+        <v>5435497</v>
       </c>
       <c r="C24" t="n">
         <v>1960586</v>
@@ -2721,19 +2721,19 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2025-05-12T17:24:22Z</t>
+          <t>2025-06-02T15:25:12Z</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2025-06-21T20:35:09Z</t>
+          <t>2025-06-02T15:25:12Z</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>2143883</v>
+        <v>2142791</v>
       </c>
       <c r="K24" t="n">
         <v>86643</v>
@@ -2756,16 +2756,16 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>2025-07-10T09:08:02Z</t>
+          <t>2025-07-21T15:01:29Z</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr"/>
       <c r="R24" t="n">
-        <v>25781</v>
+        <v>21986</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5464229', 'current_grade': None, 'current_score': 97.69, 'final_grade': None, 'final_score': 32.0, 'unposted_current_score': 97.69, 'unposted_current_grade': None, 'unposted_final_score': 32.0, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5435497', 'current_grade': None, 'current_score': 89.52, 'final_grade': None, 'final_score': 27.3, 'unposted_current_score': 89.52, 'unposted_current_grade': None, 'unposted_final_score': 27.3, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -2781,32 +2781,32 @@
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr">
         <is>
-          <t>CGS2100.021U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>U31878090</t>
+          <t>U41333662</t>
         </is>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5464229</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5435497</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>{'id': 5464229, 'name': 'Angel Jimenez', 'created_at': '2024-12-10T15:05:36-05:00', 'sortable_name': 'Jimenez, Angel', 'short_name': 'Angel Jimenez', 'sis_user_id': 'U31878090', 'integration_id': None, 'login_id': 'arjimenez'}</t>
+          <t>{'id': 5435497, 'name': 'Brandon Jackson', 'created_at': '2024-11-05T11:07:04-05:00', 'sortable_name': 'Jackson, Brandon', 'short_name': 'Brandon Jackson', 'sis_user_id': 'U41333662', 'integration_id': None, 'login_id': 'brandonjackson'}</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>46309585</v>
+        <v>46297439</v>
       </c>
       <c r="B25" t="n">
-        <v>5445225</v>
+        <v>5464229</v>
       </c>
       <c r="C25" t="n">
         <v>1960586</v>
@@ -2818,7 +2818,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2025-05-13T17:24:53Z</t>
+          <t>2025-05-12T17:24:22Z</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2853,16 +2853,16 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>2025-07-11T13:33:29Z</t>
+          <t>2025-07-21T15:08:56Z</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
-        <v>51564</v>
+        <v>36829</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5445225', 'current_grade': None, 'current_score': 85.92, 'final_grade': None, 'final_score': 16.4, 'unposted_current_score': 85.92, 'unposted_current_grade': None, 'unposted_final_score': 16.4, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5464229', 'current_grade': None, 'current_score': 99.13, 'final_grade': None, 'final_score': 39.97, 'unposted_current_score': 99.13, 'unposted_current_grade': None, 'unposted_final_score': 39.97, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -2884,26 +2884,26 @@
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>U85513252</t>
+          <t>U31878090</t>
         </is>
       </c>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5445225</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5464229</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>{'id': 5445225, 'name': 'Joseph Knight', 'created_at': '2024-11-14T19:05:27-05:00', 'sortable_name': 'Knight, Joseph', 'short_name': 'Joseph Knight', 'sis_user_id': 'U85513252', 'integration_id': None, 'login_id': 'josephknight'}</t>
+          <t>{'id': 5464229, 'name': 'Angel Jimenez', 'created_at': '2024-12-10T15:05:36-05:00', 'sortable_name': 'Jimenez, Angel', 'short_name': 'Angel Jimenez', 'sis_user_id': 'U31878090', 'integration_id': None, 'login_id': 'arjimenez'}</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>46307321</v>
+        <v>46309585</v>
       </c>
       <c r="B26" t="n">
-        <v>5462855</v>
+        <v>5445225</v>
       </c>
       <c r="C26" t="n">
         <v>1960586</v>
@@ -2915,7 +2915,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>2025-05-13T15:25:02Z</t>
+          <t>2025-05-13T17:24:53Z</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -2950,16 +2950,16 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>2025-07-09T15:20:51Z</t>
+          <t>2025-07-18T03:03:21Z</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr"/>
       <c r="R26" t="n">
-        <v>38843</v>
+        <v>69276</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5462855', 'current_grade': None, 'current_score': 86.84, 'final_grade': None, 'final_score': 18.0, 'unposted_current_score': 86.84, 'unposted_current_grade': None, 'unposted_final_score': 18.0, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5445225', 'current_grade': None, 'current_score': 92.62, 'final_grade': None, 'final_score': 25.24, 'unposted_current_score': 92.62, 'unposted_current_grade': None, 'unposted_final_score': 25.24, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -2981,26 +2981,26 @@
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>U04008596</t>
+          <t>U85513252</t>
         </is>
       </c>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5462855</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5445225</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>{'id': 5462855, 'name': 'Sofia Yumi Kubo Nimer Silva', 'created_at': '2024-12-09T13:06:25-05:00', 'sortable_name': 'Kubo Nimer Silva, Sofia Yumi', 'short_name': 'Sofia Yumi Kubo Nimer Silva', 'sis_user_id': 'U04008596', 'integration_id': None, 'login_id': 'sofiayumi'}</t>
+          <t>{'id': 5445225, 'name': 'Joseph Knight', 'created_at': '2024-11-14T19:05:27-05:00', 'sortable_name': 'Knight, Joseph', 'short_name': 'Joseph Knight', 'sis_user_id': 'U85513252', 'integration_id': None, 'login_id': 'josephknight'}</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>46305711</v>
+        <v>46307321</v>
       </c>
       <c r="B27" t="n">
-        <v>5489989</v>
+        <v>5462855</v>
       </c>
       <c r="C27" t="n">
         <v>1960586</v>
@@ -3012,7 +3012,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>2025-05-13T05:47:06Z</t>
+          <t>2025-05-13T15:25:02Z</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3047,16 +3047,16 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>2025-07-10T22:16:24Z</t>
+          <t>2025-07-21T15:02:31Z</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
-        <v>6513</v>
+        <v>53426</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5489989', 'current_grade': None, 'current_score': 85.13, 'final_grade': None, 'final_score': 16.1, 'unposted_current_score': 85.13, 'unposted_current_grade': None, 'unposted_final_score': 16.1, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5462855', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 31.42, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 31.42, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -3078,26 +3078,26 @@
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>U13049719</t>
+          <t>U04008596</t>
         </is>
       </c>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5489989</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5462855</t>
         </is>
       </c>
       <c r="AA27" t="inlineStr">
         <is>
-          <t>{'id': 5489989, 'name': 'Ava Lanier', 'created_at': '2025-01-22T11:06:00-05:00', 'sortable_name': 'Lanier, Ava', 'short_name': 'Ava Lanier', 'sis_user_id': 'U13049719', 'integration_id': None, 'login_id': 'avalanier', 'pronouns': 'she/her/hers'}</t>
+          <t>{'id': 5462855, 'name': 'Sofia Yumi Kubo Nimer Silva', 'created_at': '2024-12-09T13:06:25-05:00', 'sortable_name': 'Kubo Nimer Silva, Sofia Yumi', 'short_name': 'Sofia Yumi Kubo Nimer Silva', 'sis_user_id': 'U04008596', 'integration_id': None, 'login_id': 'sofiayumi'}</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>46483669</v>
+        <v>46305711</v>
       </c>
       <c r="B28" t="n">
-        <v>5445015</v>
+        <v>5489989</v>
       </c>
       <c r="C28" t="n">
         <v>1960586</v>
@@ -3109,19 +3109,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>2025-06-03T19:24:21Z</t>
+          <t>2025-05-13T05:47:06Z</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2025-06-03T19:24:21Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>2142791</v>
+        <v>2143883</v>
       </c>
       <c r="K28" t="n">
         <v>86643</v>
@@ -3144,16 +3144,16 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>2025-07-11T18:55:47Z</t>
+          <t>2025-07-21T13:42:17Z</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr"/>
       <c r="R28" t="n">
-        <v>18943</v>
+        <v>11552</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5445015', 'current_grade': None, 'current_score': 97.04, 'final_grade': None, 'final_score': 32.83, 'unposted_current_score': 97.04, 'unposted_current_grade': None, 'unposted_final_score': 32.83, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5489989', 'current_grade': None, 'current_score': 93.09, 'final_grade': None, 'final_score': 28.19, 'unposted_current_score': 93.09, 'unposted_current_grade': None, 'unposted_final_score': 28.19, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -3169,32 +3169,32 @@
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr">
         <is>
-          <t>CGS2100.002U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>U44650340</t>
+          <t>U13049719</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5445015</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5489989</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>{'id': 5445015, 'name': 'Rachel Larralde', 'created_at': '2024-11-14T15:06:02-05:00', 'sortable_name': 'Larralde, Rachel', 'short_name': 'Rachel Larralde', 'sis_user_id': 'U44650340', 'integration_id': None, 'login_id': 'rachellarralde'}</t>
+          <t>{'id': 5489989, 'name': 'Ava Lanier', 'created_at': '2025-01-22T11:06:00-05:00', 'sortable_name': 'Lanier, Ava', 'short_name': 'Ava Lanier', 'sis_user_id': 'U13049719', 'integration_id': None, 'login_id': 'avalanier', 'pronouns': 'she/her/hers'}</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>46314211</v>
+        <v>46483669</v>
       </c>
       <c r="B29" t="n">
-        <v>5447619</v>
+        <v>5445015</v>
       </c>
       <c r="C29" t="n">
         <v>1960586</v>
@@ -3206,12 +3206,12 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2025-05-14T01:24:05Z</t>
+          <t>2025-06-03T19:24:21Z</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>2025-05-14T01:24:05Z</t>
+          <t>2025-06-03T19:24:21Z</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
@@ -3241,16 +3241,16 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>2025-07-10T17:51:56Z</t>
+          <t>2025-07-21T14:38:33Z</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>15216</v>
+        <v>30430</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5447619', 'current_grade': None, 'current_score': 83.95, 'final_grade': None, 'final_score': 24.13, 'unposted_current_score': 83.95, 'unposted_current_grade': None, 'unposted_final_score': 24.13, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5445015', 'current_grade': None, 'current_score': 100.0, 'final_grade': None, 'final_score': 41.92, 'unposted_current_score': 100.0, 'unposted_current_grade': None, 'unposted_final_score': 41.92, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -3272,26 +3272,26 @@
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>U34125866</t>
+          <t>U44650340</t>
         </is>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5447619</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5445015</t>
         </is>
       </c>
       <c r="AA29" t="inlineStr">
         <is>
-          <t>{'id': 5447619, 'name': 'Eli London', 'created_at': '2024-11-18T17:06:31-05:00', 'sortable_name': 'London, Eli', 'short_name': 'Eli London', 'sis_user_id': 'U34125866', 'integration_id': None, 'login_id': 'elijahlondon'}</t>
+          <t>{'id': 5445015, 'name': 'Rachel Larralde', 'created_at': '2024-11-14T15:06:02-05:00', 'sortable_name': 'Larralde, Rachel', 'short_name': 'Rachel Larralde', 'sis_user_id': 'U44650340', 'integration_id': None, 'login_id': 'rachellarralde'}</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>46317997</v>
+        <v>46314211</v>
       </c>
       <c r="B30" t="n">
-        <v>5425419</v>
+        <v>5447619</v>
       </c>
       <c r="C30" t="n">
         <v>1960586</v>
@@ -3303,12 +3303,12 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>2025-05-14T17:24:41Z</t>
+          <t>2025-05-14T01:24:05Z</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>2025-05-14T17:24:41Z</t>
+          <t>2025-05-14T01:24:05Z</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
@@ -3338,16 +3338,16 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>2025-07-11T17:35:30Z</t>
+          <t>2025-07-21T13:19:29Z</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="n">
-        <v>11177</v>
+        <v>16044</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5425419', 'current_grade': None, 'current_score': 86.23, 'final_grade': None, 'final_score': 17.77, 'unposted_current_score': 86.23, 'unposted_current_grade': None, 'unposted_final_score': 17.77, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5447619', 'current_grade': None, 'current_score': 87.03, 'final_grade': None, 'final_score': 21.7, 'unposted_current_score': 87.03, 'unposted_current_grade': None, 'unposted_final_score': 21.7, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -3369,26 +3369,26 @@
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>U89866343</t>
+          <t>U34125866</t>
         </is>
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5425419</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5447619</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>{'id': 5425419, 'name': 'Leila Morales', 'created_at': '2024-10-23T17:05:55-04:00', 'sortable_name': 'Morales, Leila', 'short_name': 'Leila Morales', 'sis_user_id': 'U89866343', 'integration_id': None, 'login_id': 'leilaannmorales', 'pronouns': 'she/her/hers'}</t>
+          <t>{'id': 5447619, 'name': 'Eli London', 'created_at': '2024-11-18T17:06:31-05:00', 'sortable_name': 'London, Eli', 'short_name': 'Eli London', 'sis_user_id': 'U34125866', 'integration_id': None, 'login_id': 'elijahlondon'}</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>46486017</v>
+        <v>46317997</v>
       </c>
       <c r="B31" t="n">
-        <v>5509671</v>
+        <v>5425419</v>
       </c>
       <c r="C31" t="n">
         <v>1960586</v>
@@ -3400,19 +3400,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>2025-06-04T11:23:17Z</t>
+          <t>2025-05-14T17:24:41Z</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>2025-06-21T20:35:09Z</t>
+          <t>2025-05-14T17:24:41Z</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>2143883</v>
+        <v>2142791</v>
       </c>
       <c r="K31" t="n">
         <v>86643</v>
@@ -3435,16 +3435,16 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>2025-07-09T14:49:13Z</t>
+          <t>2025-07-21T14:56:12Z</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>8691</v>
+        <v>22034</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5509671', 'current_grade': None, 'current_score': 86.93, 'final_grade': None, 'final_score': 16.78, 'unposted_current_score': 86.93, 'unposted_current_grade': None, 'unposted_final_score': 16.78, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5425419', 'current_grade': None, 'current_score': 96.8, 'final_grade': None, 'final_score': 28.98, 'unposted_current_score': 96.8, 'unposted_current_grade': None, 'unposted_final_score': 28.98, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
@@ -3460,32 +3460,32 @@
       <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
-          <t>CGS2100.021U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>U33507894</t>
+          <t>U89866343</t>
         </is>
       </c>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5509671</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5425419</t>
         </is>
       </c>
       <c r="AA31" t="inlineStr">
         <is>
-          <t>{'id': 5509671, 'name': 'Anna Moreno', 'created_at': '2025-03-06T19:05:59-05:00', 'sortable_name': 'Moreno, Anna', 'short_name': 'Anna Moreno', 'sis_user_id': 'U33507894', 'integration_id': None, 'login_id': 'amoreno209'}</t>
+          <t>{'id': 5425419, 'name': 'Leila Morales', 'created_at': '2024-10-23T17:05:55-04:00', 'sortable_name': 'Morales, Leila', 'short_name': 'Leila Morales', 'sis_user_id': 'U89866343', 'integration_id': None, 'login_id': 'leilaannmorales', 'pronouns': 'she/her/hers'}</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>46599749</v>
+        <v>46486017</v>
       </c>
       <c r="B32" t="n">
-        <v>5441293</v>
+        <v>5509671</v>
       </c>
       <c r="C32" t="n">
         <v>1960586</v>
@@ -3497,19 +3497,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>2025-06-23T15:23:35Z</t>
+          <t>2025-06-04T11:23:17Z</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2025-06-23T15:23:35Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>2142791</v>
+        <v>2143883</v>
       </c>
       <c r="K32" t="n">
         <v>86643</v>
@@ -3532,16 +3532,16 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>2025-07-11T18:42:28Z</t>
+          <t>2025-07-21T14:42:50Z</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>21389</v>
+        <v>10953</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5441293', 'current_grade': None, 'current_score': 86.84, 'final_grade': None, 'final_score': 16.75, 'unposted_current_score': 86.84, 'unposted_current_grade': None, 'unposted_final_score': 16.75, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5509671', 'current_grade': None, 'current_score': 91.2, 'final_grade': None, 'final_score': 31.91, 'unposted_current_score': 91.2, 'unposted_current_grade': None, 'unposted_final_score': 31.91, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -3557,32 +3557,32 @@
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr">
         <is>
-          <t>CGS2100.002U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>U24356879</t>
+          <t>U33507894</t>
         </is>
       </c>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5441293</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5509671</t>
         </is>
       </c>
       <c r="AA32" t="inlineStr">
         <is>
-          <t>{'id': 5441293, 'name': 'Brandon Nguyen', 'created_at': '2024-11-08T17:06:17-05:00', 'sortable_name': 'Nguyen, Brandon', 'short_name': 'Brandon Nguyen', 'sis_user_id': 'U24356879', 'integration_id': None, 'login_id': 'bnguyen61'}</t>
+          <t>{'id': 5509671, 'name': 'Anna Moreno', 'created_at': '2025-03-06T19:05:59-05:00', 'sortable_name': 'Moreno, Anna', 'short_name': 'Anna Moreno', 'sis_user_id': 'U33507894', 'integration_id': None, 'login_id': 'amoreno209'}</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>46463577</v>
+        <v>46599749</v>
       </c>
       <c r="B33" t="n">
-        <v>5449907</v>
+        <v>5441293</v>
       </c>
       <c r="C33" t="n">
         <v>1960586</v>
@@ -3594,12 +3594,12 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>2025-05-30T17:24:45Z</t>
+          <t>2025-06-23T15:23:35Z</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>2025-05-30T17:24:45Z</t>
+          <t>2025-06-23T15:23:35Z</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -3629,16 +3629,16 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>2025-07-11T18:28:46Z</t>
+          <t>2025-07-18T18:41:33Z</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>11133</v>
+        <v>24697</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5449907', 'current_grade': None, 'current_score': 99.08, 'final_grade': None, 'final_score': 22.65, 'unposted_current_score': 99.08, 'unposted_current_grade': None, 'unposted_final_score': 22.65, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5441293', 'current_grade': None, 'current_score': 94.6, 'final_grade': None, 'final_score': 28.87, 'unposted_current_score': 94.6, 'unposted_current_grade': None, 'unposted_final_score': 28.87, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -3660,26 +3660,26 @@
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>U08894019</t>
+          <t>U24356879</t>
         </is>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5449907</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5441293</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>{'id': 5449907, 'name': 'Amanda Nielsen', 'created_at': '2024-11-19T17:07:34-05:00', 'sortable_name': 'Nielsen, Amanda', 'short_name': 'Amanda Nielsen', 'sis_user_id': 'U08894019', 'integration_id': None, 'login_id': 'amandanielsen'}</t>
+          <t>{'id': 5441293, 'name': 'Brandon Nguyen', 'created_at': '2024-11-08T17:06:17-05:00', 'sortable_name': 'Nguyen, Brandon', 'short_name': 'Brandon Nguyen', 'sis_user_id': 'U24356879', 'integration_id': None, 'login_id': 'bnguyen61'}</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>46396405</v>
+        <v>46463577</v>
       </c>
       <c r="B34" t="n">
-        <v>5488551</v>
+        <v>5449907</v>
       </c>
       <c r="C34" t="n">
         <v>1960586</v>
@@ -3691,12 +3691,12 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>2025-05-19T15:25:02Z</t>
+          <t>2025-05-30T17:24:45Z</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>2025-05-19T15:25:02Z</t>
+          <t>2025-05-30T17:24:45Z</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -3726,16 +3726,16 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>2025-07-11T16:39:15Z</t>
+          <t>2025-07-21T14:35:20Z</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="n">
-        <v>11248</v>
+        <v>15752</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5488551', 'current_grade': None, 'current_score': 80.97, 'final_grade': None, 'final_score': 14.52, 'unposted_current_score': 80.97, 'unposted_current_grade': None, 'unposted_final_score': 14.52, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5449907', 'current_grade': None, 'current_score': 97.29, 'final_grade': None, 'final_score': 46.99, 'unposted_current_score': 97.29, 'unposted_current_grade': None, 'unposted_final_score': 46.99, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -3757,26 +3757,26 @@
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>U32417601</t>
+          <t>U08894019</t>
         </is>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5488551</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5449907</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>{'id': 5488551, 'name': 'Dylan Nyikos', 'created_at': '2025-01-17T19:05:23-05:00', 'sortable_name': 'Nyikos, Dylan', 'short_name': 'Dylan Nyikos', 'sis_user_id': 'U32417601', 'integration_id': None, 'login_id': 'dpnyikos'}</t>
+          <t>{'id': 5449907, 'name': 'Amanda Nielsen', 'created_at': '2024-11-19T17:07:34-05:00', 'sortable_name': 'Nielsen, Amanda', 'short_name': 'Amanda Nielsen', 'sis_user_id': 'U08894019', 'integration_id': None, 'login_id': 'amandanielsen'}</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>46503669</v>
+        <v>46396405</v>
       </c>
       <c r="B35" t="n">
-        <v>5459463</v>
+        <v>5488551</v>
       </c>
       <c r="C35" t="n">
         <v>1960586</v>
@@ -3788,19 +3788,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>2025-06-08T21:25:48Z</t>
+          <t>2025-05-19T15:25:02Z</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>2025-06-21T20:35:09Z</t>
+          <t>2025-05-19T15:25:02Z</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>2143883</v>
+        <v>2142791</v>
       </c>
       <c r="K35" t="n">
         <v>86643</v>
@@ -3823,16 +3823,16 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>2025-07-11T03:09:47Z</t>
+          <t>2025-07-21T14:38:59Z</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="n">
-        <v>6425</v>
+        <v>27352</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5459463', 'current_grade': None, 'current_score': 86.84, 'final_grade': None, 'final_score': 16.75, 'unposted_current_score': 86.84, 'unposted_current_grade': None, 'unposted_final_score': 16.75, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5488551', 'current_grade': None, 'current_score': 53.85, 'final_grade': None, 'final_score': 21.67, 'unposted_current_score': 53.85, 'unposted_current_grade': None, 'unposted_final_score': 21.67, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -3848,32 +3848,32 @@
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr">
         <is>
-          <t>CGS2100.021U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>U44611120</t>
+          <t>U32417601</t>
         </is>
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5459463</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5488551</t>
         </is>
       </c>
       <c r="AA35" t="inlineStr">
         <is>
-          <t>{'id': 5459463, 'name': 'Xenia Ochoa', 'created_at': '2024-12-02T13:06:57-05:00', 'sortable_name': 'Ochoa, Xenia', 'short_name': 'Xenia Ochoa', 'sis_user_id': 'U44611120', 'integration_id': None, 'login_id': 'xeniaochoa'}</t>
+          <t>{'id': 5488551, 'name': 'Dylan Nyikos', 'created_at': '2025-01-17T19:05:23-05:00', 'sortable_name': 'Nyikos, Dylan', 'short_name': 'Dylan Nyikos', 'sis_user_id': 'U32417601', 'integration_id': None, 'login_id': 'dpnyikos'}</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>46597431</v>
+        <v>46503669</v>
       </c>
       <c r="B36" t="n">
-        <v>5501311</v>
+        <v>5459463</v>
       </c>
       <c r="C36" t="n">
         <v>1960586</v>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>2025-06-21T19:24:18Z</t>
+          <t>2025-06-08T21:25:48Z</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3920,16 +3920,16 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>2025-07-10T05:14:35Z</t>
+          <t>2025-07-21T15:03:54Z</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="n">
-        <v>3366</v>
+        <v>8141</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5501311', 'current_grade': None, 'current_score': 85.13, 'final_grade': None, 'final_score': 16.1, 'unposted_current_score': 85.13, 'unposted_current_grade': None, 'unposted_final_score': 16.1, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5459463', 'current_grade': None, 'current_score': 77.62, 'final_grade': None, 'final_score': 21.6, 'unposted_current_score': 77.62, 'unposted_current_grade': None, 'unposted_final_score': 21.6, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
@@ -3951,26 +3951,26 @@
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>U75197896</t>
+          <t>U44611120</t>
         </is>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5501311</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5459463</t>
         </is>
       </c>
       <c r="AA36" t="inlineStr">
         <is>
-          <t>{'id': 5501311, 'name': 'Mckayla Oliveira', 'created_at': '2025-02-17T15:04:31-05:00', 'sortable_name': 'Oliveira, Mckayla', 'short_name': 'Mckayla Oliveira', 'sis_user_id': 'U75197896', 'integration_id': None, 'login_id': 'mckaylao'}</t>
+          <t>{'id': 5459463, 'name': 'Xenia Ochoa', 'created_at': '2024-12-02T13:06:57-05:00', 'sortable_name': 'Ochoa, Xenia', 'short_name': 'Xenia Ochoa', 'sis_user_id': 'U44611120', 'integration_id': None, 'login_id': 'xeniaochoa'}</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>46636435</v>
+        <v>46597431</v>
       </c>
       <c r="B37" t="n">
-        <v>5445241</v>
+        <v>5501311</v>
       </c>
       <c r="C37" t="n">
         <v>1960586</v>
@@ -3982,12 +3982,12 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>2025-06-30T19:24:12Z</t>
+          <t>2025-06-21T19:24:18Z</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>2025-06-30T19:24:12Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G37" t="inlineStr"/>
@@ -4017,16 +4017,16 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>2025-07-09T20:00:56Z</t>
+          <t>2025-07-21T14:53:44Z</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="n">
-        <v>6564</v>
+        <v>5376</v>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5445241', 'current_grade': None, 'current_score': 84.21, 'final_grade': None, 'final_score': 15.75, 'unposted_current_score': 84.21, 'unposted_current_grade': None, 'unposted_final_score': 15.75, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5501311', 'current_grade': None, 'current_score': 76.46, 'final_grade': None, 'final_score': 22.06, 'unposted_current_score': 76.46, 'unposted_current_grade': None, 'unposted_final_score': 22.06, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
@@ -4048,26 +4048,26 @@
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>U64836173</t>
+          <t>U75197896</t>
         </is>
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5445241</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5501311</t>
         </is>
       </c>
       <c r="AA37" t="inlineStr">
         <is>
-          <t>{'id': 5445241, 'name': 'Jason Ortiz-Turcios', 'created_at': '2024-11-14T19:05:41-05:00', 'sortable_name': 'Ortiz-Turcios, Jason', 'short_name': 'Jason Ortiz-Turcios', 'sis_user_id': 'U64836173', 'integration_id': None, 'login_id': 'jason772'}</t>
+          <t>{'id': 5501311, 'name': 'Mckayla Oliveira', 'created_at': '2025-02-17T15:04:31-05:00', 'sortable_name': 'Oliveira, Mckayla', 'short_name': 'Mckayla Oliveira', 'sis_user_id': 'U75197896', 'integration_id': None, 'login_id': 'mckaylao'}</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>46305677</v>
+        <v>46636435</v>
       </c>
       <c r="B38" t="n">
-        <v>5458329</v>
+        <v>5445241</v>
       </c>
       <c r="C38" t="n">
         <v>1960586</v>
@@ -4079,12 +4079,12 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2025-05-13T05:47:03Z</t>
+          <t>2025-06-30T19:24:12Z</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>2025-06-21T20:35:09Z</t>
+          <t>2025-06-30T19:24:12Z</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -4114,16 +4114,16 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>2025-07-10T23:26:14Z</t>
+          <t>2025-07-21T15:00:58Z</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="n">
-        <v>8476</v>
+        <v>14768</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5458329', 'current_grade': None, 'current_score': 78.95, 'final_grade': None, 'final_score': 15.0, 'unposted_current_score': 78.95, 'unposted_current_grade': None, 'unposted_final_score': 15.0, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5445241', 'current_grade': None, 'current_score': 90.15, 'final_grade': None, 'final_score': 28.95, 'unposted_current_score': 90.15, 'unposted_current_grade': None, 'unposted_final_score': 28.95, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -4145,26 +4145,26 @@
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>U15555805</t>
+          <t>U64836173</t>
         </is>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5458329</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5445241</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>{'id': 5458329, 'name': 'Cecelia Parrino', 'created_at': '2024-11-27T09:04:38-05:00', 'sortable_name': 'Parrino, Cecelia', 'short_name': 'Cecelia Parrino', 'sis_user_id': 'U15555805', 'integration_id': None, 'login_id': 'ceceliaparrino'}</t>
+          <t>{'id': 5445241, 'name': 'Jason Ortiz-Turcios', 'created_at': '2024-11-14T19:05:41-05:00', 'sortable_name': 'Ortiz-Turcios, Jason', 'short_name': 'Jason Ortiz-Turcios', 'sis_user_id': 'U64836173', 'integration_id': None, 'login_id': 'jason772'}</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>46304765</v>
+        <v>46305677</v>
       </c>
       <c r="B39" t="n">
-        <v>5487129</v>
+        <v>5458329</v>
       </c>
       <c r="C39" t="n">
         <v>1960586</v>
@@ -4176,7 +4176,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>2025-05-13T01:24:21Z</t>
+          <t>2025-05-13T05:47:03Z</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4211,16 +4211,16 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>2025-07-09T19:49:11Z</t>
+          <t>2025-07-21T14:28:41Z</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="n">
-        <v>15360</v>
+        <v>12709</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5487129', 'current_grade': None, 'current_score': 90.32, 'final_grade': None, 'final_score': 31.93, 'unposted_current_score': 90.32, 'unposted_current_grade': None, 'unposted_final_score': 31.93, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5458329', 'current_grade': None, 'current_score': 71.91, 'final_grade': None, 'final_score': 22.1, 'unposted_current_score': 71.91, 'unposted_current_grade': None, 'unposted_final_score': 22.1, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -4242,26 +4242,26 @@
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>U16616545</t>
+          <t>U15555805</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5487129</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5458329</t>
         </is>
       </c>
       <c r="AA39" t="inlineStr">
         <is>
-          <t>{'id': 5487129, 'name': 'Gabe Pruitt', 'created_at': '2025-01-16T15:04:54-05:00', 'sortable_name': 'Pruitt, Gabe', 'short_name': 'Gabe Pruitt', 'sis_user_id': 'U16616545', 'integration_id': None, 'login_id': 'gabrielpruitt', 'pronouns': 'he/him/his'}</t>
+          <t>{'id': 5458329, 'name': 'Cecelia Parrino', 'created_at': '2024-11-27T09:04:38-05:00', 'sortable_name': 'Parrino, Cecelia', 'short_name': 'Cecelia Parrino', 'sis_user_id': 'U15555805', 'integration_id': None, 'login_id': 'ceceliaparrino'}</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>46443879</v>
+        <v>46304765</v>
       </c>
       <c r="B40" t="n">
-        <v>5462903</v>
+        <v>5487129</v>
       </c>
       <c r="C40" t="n">
         <v>1960586</v>
@@ -4273,19 +4273,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>2025-05-26T15:23:41Z</t>
+          <t>2025-05-13T01:24:21Z</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>2025-05-26T15:23:41Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>2142791</v>
+        <v>2143883</v>
       </c>
       <c r="K40" t="n">
         <v>86643</v>
@@ -4308,16 +4308,16 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>2025-07-09T14:20:16Z</t>
+          <t>2025-07-21T00:48:53Z</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="n">
-        <v>6154</v>
+        <v>22339</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5462903', 'current_grade': None, 'current_score': 50.77, 'final_grade': None, 'final_score': 18.0, 'unposted_current_score': 50.77, 'unposted_current_grade': None, 'unposted_final_score': 18.0, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5487129', 'current_grade': None, 'current_score': 98.16, 'final_grade': None, 'final_score': 47.49, 'unposted_current_score': 98.16, 'unposted_current_grade': None, 'unposted_final_score': 47.49, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -4333,32 +4333,32 @@
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr">
         <is>
-          <t>CGS2100.002U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>U74277121</t>
+          <t>U16616545</t>
         </is>
       </c>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5462903</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5487129</t>
         </is>
       </c>
       <c r="AA40" t="inlineStr">
         <is>
-          <t>{'id': 5462903, 'name': 'David Rogers', 'created_at': '2024-12-09T13:07:00-05:00', 'sortable_name': 'Rogers, David', 'short_name': 'David Rogers', 'sis_user_id': 'U74277121', 'integration_id': None, 'login_id': 'davidedwardrogers'}</t>
+          <t>{'id': 5487129, 'name': 'Gabe Pruitt', 'created_at': '2025-01-16T15:04:54-05:00', 'sortable_name': 'Pruitt, Gabe', 'short_name': 'Gabe Pruitt', 'sis_user_id': 'U16616545', 'integration_id': None, 'login_id': 'gabrielpruitt', 'pronouns': 'he/him/his'}</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>46305445</v>
+        <v>46443879</v>
       </c>
       <c r="B41" t="n">
-        <v>5459915</v>
+        <v>5462903</v>
       </c>
       <c r="C41" t="n">
         <v>1960586</v>
@@ -4370,19 +4370,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>2025-05-13T05:46:39Z</t>
+          <t>2025-05-26T15:23:41Z</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>2025-06-21T20:35:09Z</t>
+          <t>2025-05-26T15:23:41Z</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>2143883</v>
+        <v>2142791</v>
       </c>
       <c r="K41" t="n">
         <v>86643</v>
@@ -4405,16 +4405,16 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>2025-07-11T01:37:00Z</t>
+          <t>2025-07-21T13:42:40Z</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="n">
-        <v>12710</v>
+        <v>7435</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5459915', 'current_grade': None, 'current_score': 82.5, 'final_grade': None, 'final_score': 15.1, 'unposted_current_score': 82.5, 'unposted_current_grade': None, 'unposted_final_score': 15.1, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5462903', 'current_grade': None, 'current_score': 92.82, 'final_grade': None, 'final_score': 25.3, 'unposted_current_score': 92.82, 'unposted_current_grade': None, 'unposted_final_score': 25.3, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -4430,32 +4430,32 @@
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
-          <t>CGS2100.021U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>U69599253</t>
+          <t>U74277121</t>
         </is>
       </c>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5459915</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5462903</t>
         </is>
       </c>
       <c r="AA41" t="inlineStr">
         <is>
-          <t>{'id': 5459915, 'name': 'Adrianna Ruiz', 'created_at': '2024-12-02T19:06:24-05:00', 'sortable_name': 'Ruiz, Adrianna', 'short_name': 'Adrianna Ruiz', 'sis_user_id': 'U69599253', 'integration_id': None, 'login_id': 'adriannaruiz'}</t>
+          <t>{'id': 5462903, 'name': 'David Rogers', 'created_at': '2024-12-09T13:07:00-05:00', 'sortable_name': 'Rogers, David', 'short_name': 'David Rogers', 'sis_user_id': 'U74277121', 'integration_id': None, 'login_id': 'davidedwardrogers'}</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>46303867</v>
+        <v>46305445</v>
       </c>
       <c r="B42" t="n">
-        <v>5445265</v>
+        <v>5459915</v>
       </c>
       <c r="C42" t="n">
         <v>1960586</v>
@@ -4467,7 +4467,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>2025-05-12T23:24:32Z</t>
+          <t>2025-05-13T05:46:39Z</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4502,16 +4502,16 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>2025-07-10T18:49:29Z</t>
+          <t>2025-07-21T14:25:15Z</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="n">
-        <v>4078</v>
+        <v>17166</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5445265', 'current_grade': None, 'current_score': 82.5, 'final_grade': None, 'final_score': 15.1, 'unposted_current_score': 82.5, 'unposted_current_grade': None, 'unposted_final_score': 15.1, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5459915', 'current_grade': None, 'current_score': 89.85, 'final_grade': None, 'final_score': 23.45, 'unposted_current_score': 89.85, 'unposted_current_grade': None, 'unposted_final_score': 23.45, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -4533,26 +4533,26 @@
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>U37563843</t>
+          <t>U69599253</t>
         </is>
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5445265</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5459915</t>
         </is>
       </c>
       <c r="AA42" t="inlineStr">
         <is>
-          <t>{'id': 5445265, 'name': 'Jacob Schoner', 'created_at': '2024-11-14T19:06:00-05:00', 'sortable_name': 'Schoner, Jacob', 'short_name': 'Jacob Schoner', 'sis_user_id': 'U37563843', 'integration_id': None, 'login_id': 'jacobschoner'}</t>
+          <t>{'id': 5459915, 'name': 'Adrianna Ruiz', 'created_at': '2024-12-02T19:06:24-05:00', 'sortable_name': 'Ruiz, Adrianna', 'short_name': 'Adrianna Ruiz', 'sis_user_id': 'U69599253', 'integration_id': None, 'login_id': 'adriannaruiz'}</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>46396487</v>
+        <v>46303867</v>
       </c>
       <c r="B43" t="n">
-        <v>5470105</v>
+        <v>5445265</v>
       </c>
       <c r="C43" t="n">
         <v>1960586</v>
@@ -4564,19 +4564,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>2025-05-19T15:25:10Z</t>
+          <t>2025-05-12T23:24:32Z</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>2025-05-19T15:25:10Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>2142791</v>
+        <v>2143883</v>
       </c>
       <c r="K43" t="n">
         <v>86643</v>
@@ -4599,16 +4599,16 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>2025-07-10T19:38:56Z</t>
+          <t>2025-07-21T14:46:32Z</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="n">
-        <v>9086</v>
+        <v>6778</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5470105', 'current_grade': None, 'current_score': 84.21, 'final_grade': None, 'final_score': 15.75, 'unposted_current_score': 84.21, 'unposted_current_grade': None, 'unposted_final_score': 15.75, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5445265', 'current_grade': None, 'current_score': 86.8, 'final_grade': None, 'final_score': 25.2, 'unposted_current_score': 86.8, 'unposted_current_grade': None, 'unposted_final_score': 25.2, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -4624,32 +4624,32 @@
       <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr">
         <is>
-          <t>CGS2100.002U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>U14290608</t>
+          <t>U37563843</t>
         </is>
       </c>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5470105</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5445265</t>
         </is>
       </c>
       <c r="AA43" t="inlineStr">
         <is>
-          <t>{'id': 5470105, 'name': 'Manuela Silva', 'created_at': '2024-12-17T19:08:28-05:00', 'sortable_name': 'Silva, Manuela', 'short_name': 'Manuela Silva', 'sis_user_id': 'U14290608', 'integration_id': None, 'login_id': 'manuelasilva'}</t>
+          <t>{'id': 5445265, 'name': 'Jacob Schoner', 'created_at': '2024-11-14T19:06:00-05:00', 'sortable_name': 'Schoner, Jacob', 'short_name': 'Jacob Schoner', 'sis_user_id': 'U37563843', 'integration_id': None, 'login_id': 'jacobschoner'}</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>46637643</v>
+        <v>46396487</v>
       </c>
       <c r="B44" t="n">
-        <v>5447047</v>
+        <v>5470105</v>
       </c>
       <c r="C44" t="n">
         <v>1960586</v>
@@ -4661,12 +4661,12 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>2025-06-30T21:24:19Z</t>
+          <t>2025-05-19T15:25:10Z</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>2025-06-30T21:24:19Z</t>
+          <t>2025-05-19T15:25:10Z</t>
         </is>
       </c>
       <c r="G44" t="inlineStr"/>
@@ -4696,16 +4696,16 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>2025-07-11T18:47:47Z</t>
+          <t>2025-07-21T14:59:08Z</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="n">
-        <v>4384</v>
+        <v>12341</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5447047', 'current_grade': None, 'current_score': 84.3, 'final_grade': None, 'final_score': 15.78, 'unposted_current_score': 84.3, 'unposted_current_grade': None, 'unposted_final_score': 15.78, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5470105', 'current_grade': None, 'current_score': 90.77, 'final_grade': None, 'final_score': 24.25, 'unposted_current_score': 90.77, 'unposted_current_grade': None, 'unposted_final_score': 24.25, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
@@ -4727,26 +4727,26 @@
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>U61622868</t>
+          <t>U14290608</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5447047</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5470105</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>{'id': 5447047, 'name': 'Charley Su', 'created_at': '2024-11-18T13:07:47-05:00', 'sortable_name': 'Su, Charley', 'short_name': 'Charley Su', 'sis_user_id': 'U61622868', 'integration_id': None, 'login_id': 'jiachensu', 'pronouns': 'he/him/his'}</t>
+          <t>{'id': 5470105, 'name': 'Manuela Silva', 'created_at': '2024-12-17T19:08:28-05:00', 'sortable_name': 'Silva, Manuela', 'short_name': 'Manuela Silva', 'sis_user_id': 'U14290608', 'integration_id': None, 'login_id': 'manuelasilva'}</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>46606823</v>
+        <v>46637643</v>
       </c>
       <c r="B45" t="n">
-        <v>5453441</v>
+        <v>5447047</v>
       </c>
       <c r="C45" t="n">
         <v>1960586</v>
@@ -4758,12 +4758,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>2025-06-24T17:24:06Z</t>
+          <t>2025-06-30T21:24:19Z</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>2025-06-24T17:24:06Z</t>
+          <t>2025-06-30T21:24:19Z</t>
         </is>
       </c>
       <c r="G45" t="inlineStr"/>
@@ -4793,16 +4793,16 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>2025-07-10T22:56:45Z</t>
+          <t>2025-07-21T14:57:47Z</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr"/>
       <c r="R45" t="n">
-        <v>7710</v>
+        <v>12529</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5453441', 'current_grade': None, 'current_score': 93.49, 'final_grade': None, 'final_score': 29.27, 'unposted_current_score': 93.49, 'unposted_current_grade': None, 'unposted_final_score': 29.27, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5447047', 'current_grade': None, 'current_score': 73.57, 'final_grade': None, 'final_score': 21.01, 'unposted_current_score': 73.57, 'unposted_current_grade': None, 'unposted_final_score': 21.01, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
@@ -4824,26 +4824,26 @@
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>U78625911</t>
+          <t>U61622868</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5453441</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5447047</t>
         </is>
       </c>
       <c r="AA45" t="inlineStr">
         <is>
-          <t>{'id': 5453441, 'name': 'Heny Surtee', 'created_at': '2024-11-21T13:05:52-05:00', 'sortable_name': 'Surtee, Heny', 'short_name': 'Heny Surtee', 'sis_user_id': 'U78625911', 'integration_id': None, 'login_id': 'surteeh'}</t>
+          <t>{'id': 5447047, 'name': 'Charley Su', 'created_at': '2024-11-18T13:07:47-05:00', 'sortable_name': 'Su, Charley', 'short_name': 'Charley Su', 'sis_user_id': 'U61622868', 'integration_id': None, 'login_id': 'jiachensu', 'pronouns': 'he/him/his'}</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>46453263</v>
+        <v>46606823</v>
       </c>
       <c r="B46" t="n">
-        <v>5486665</v>
+        <v>5453441</v>
       </c>
       <c r="C46" t="n">
         <v>1960586</v>
@@ -4855,19 +4855,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>2025-05-28T17:30:06Z</t>
+          <t>2025-06-24T17:24:06Z</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>2025-06-21T20:35:09Z</t>
+          <t>2025-06-24T17:24:06Z</t>
         </is>
       </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>2143883</v>
+        <v>2142791</v>
       </c>
       <c r="K46" t="n">
         <v>86643</v>
@@ -4890,16 +4890,16 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>2025-07-09T14:08:59Z</t>
+          <t>2025-07-21T14:37:10Z</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr"/>
       <c r="R46" t="n">
-        <v>10715</v>
+        <v>9061</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5486665', 'current_grade': None, 'current_score': 86.84, 'final_grade': None, 'final_score': 18.0, 'unposted_current_score': 86.84, 'unposted_current_grade': None, 'unposted_final_score': 18.0, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5453441', 'current_grade': None, 'current_score': 99.33, 'final_grade': None, 'final_score': 37.53, 'unposted_current_score': 99.33, 'unposted_current_grade': None, 'unposted_final_score': 37.53, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
@@ -4915,32 +4915,32 @@
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
-          <t>CGS2100.021U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>U95838760</t>
+          <t>U78625911</t>
         </is>
       </c>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5486665</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5453441</t>
         </is>
       </c>
       <c r="AA46" t="inlineStr">
         <is>
-          <t>{'id': 5486665, 'name': 'Laura Toriello', 'created_at': '2025-01-16T11:04:53-05:00', 'sortable_name': 'Toriello, Laura', 'short_name': 'Laura Toriello', 'sis_user_id': 'U95838760', 'integration_id': None, 'login_id': 'llt144'}</t>
+          <t>{'id': 5453441, 'name': 'Heny Surtee', 'created_at': '2024-11-21T13:05:52-05:00', 'sortable_name': 'Surtee, Heny', 'short_name': 'Heny Surtee', 'sis_user_id': 'U78625911', 'integration_id': None, 'login_id': 'surteeh'}</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>46349733</v>
+        <v>46453263</v>
       </c>
       <c r="B47" t="n">
-        <v>5461189</v>
+        <v>5486665</v>
       </c>
       <c r="C47" t="n">
         <v>1960586</v>
@@ -4952,19 +4952,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>2025-05-16T17:25:08Z</t>
+          <t>2025-05-28T17:30:06Z</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>2025-05-16T17:25:08Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>2142791</v>
+        <v>2143883</v>
       </c>
       <c r="K47" t="n">
         <v>86643</v>
@@ -4987,16 +4987,16 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>2025-07-11T04:37:49Z</t>
+          <t>2025-07-21T15:02:33Z</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr"/>
       <c r="R47" t="n">
-        <v>14671</v>
+        <v>14161</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5461189', 'current_grade': None, 'current_score': 77.63, 'final_grade': None, 'final_score': 13.25, 'unposted_current_score': 77.63, 'unposted_current_grade': None, 'unposted_final_score': 13.25, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5486665', 'current_grade': None, 'current_score': 82.34, 'final_grade': None, 'final_score': 24.8, 'unposted_current_score': 82.34, 'unposted_current_grade': None, 'unposted_final_score': 24.8, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -5012,32 +5012,32 @@
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr">
         <is>
-          <t>CGS2100.002U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>U34392995</t>
+          <t>U95838760</t>
         </is>
       </c>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5461189</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5486665</t>
         </is>
       </c>
       <c r="AA47" t="inlineStr">
         <is>
-          <t>{'id': 5461189, 'name': 'Isabelle Whiteside', 'created_at': '2024-12-04T19:05:25-05:00', 'sortable_name': 'Whiteside, Isabelle', 'short_name': 'Isabelle Whiteside', 'sis_user_id': 'U34392995', 'integration_id': None, 'login_id': 'isabellewhiteside'}</t>
+          <t>{'id': 5486665, 'name': 'Laura Toriello', 'created_at': '2025-01-16T11:04:53-05:00', 'sortable_name': 'Toriello, Laura', 'short_name': 'Laura Toriello', 'sis_user_id': 'U95838760', 'integration_id': None, 'login_id': 'llt144'}</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>46307723</v>
+        <v>46349733</v>
       </c>
       <c r="B48" t="n">
-        <v>5458119</v>
+        <v>5461189</v>
       </c>
       <c r="C48" t="n">
         <v>1960586</v>
@@ -5049,19 +5049,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>2025-05-13T15:25:41Z</t>
+          <t>2025-05-16T17:25:08Z</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>2025-06-21T20:35:09Z</t>
+          <t>2025-05-16T17:25:08Z</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>2143883</v>
+        <v>2142791</v>
       </c>
       <c r="K48" t="n">
         <v>86643</v>
@@ -5084,16 +5084,16 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>2025-07-09T17:37:23Z</t>
+          <t>2025-07-21T15:09:33Z</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr"/>
       <c r="R48" t="n">
-        <v>7366</v>
+        <v>19785</v>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5458119', 'current_grade': None, 'current_score': 94.08, 'final_grade': None, 'final_score': 24.65, 'unposted_current_score': 94.08, 'unposted_current_grade': None, 'unposted_final_score': 24.65, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5461189', 'current_grade': None, 'current_score': 43.67, 'final_grade': None, 'final_score': 17.23, 'unposted_current_score': 43.67, 'unposted_current_grade': None, 'unposted_final_score': 17.23, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -5109,49 +5109,49 @@
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr">
         <is>
-          <t>CGS2100.021U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>U52090888</t>
+          <t>U34392995</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5458119</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5461189</t>
         </is>
       </c>
       <c r="AA48" t="inlineStr">
         <is>
-          <t>{'id': 5458119, 'name': 'Marisa Yapello', 'created_at': '2024-11-26T17:06:06-05:00', 'sortable_name': 'Yapello, Marisa', 'short_name': 'Marisa Yapello', 'sis_user_id': 'U52090888', 'integration_id': None, 'login_id': 'myapello12'}</t>
+          <t>{'id': 5461189, 'name': 'Isabelle Whiteside', 'created_at': '2024-12-04T19:05:25-05:00', 'sortable_name': 'Whiteside, Isabelle', 'short_name': 'Isabelle Whiteside', 'sis_user_id': 'U34392995', 'integration_id': None, 'login_id': 'isabellewhiteside'}</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>46633533</v>
+        <v>46307723</v>
       </c>
       <c r="B49" t="n">
-        <v>5551489</v>
+        <v>5458119</v>
       </c>
       <c r="C49" t="n">
         <v>1960586</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>StudentViewEnrollment</t>
+          <t>StudentEnrollment</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>2025-06-30T12:07:56Z</t>
+          <t>2025-05-13T15:25:41Z</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>2025-06-30T12:07:56Z</t>
+          <t>2025-06-21T20:35:09Z</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -5181,16 +5181,16 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>2025-07-07T14:19:31Z</t>
+          <t>2025-07-21T14:21:42Z</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="n">
-        <v>824</v>
+        <v>11267</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5551489', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5458119', 'current_grade': None, 'current_score': 94.08, 'final_grade': None, 'final_score': 25.9, 'unposted_current_score': 94.08, 'unposted_current_grade': None, 'unposted_final_score': 25.9, 'unposted_final_grade': None}</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -5210,21 +5210,25 @@
         </is>
       </c>
       <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>U52090888</t>
+        </is>
+      </c>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5551489</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5458119</t>
         </is>
       </c>
       <c r="AA49" t="inlineStr">
         <is>
-          <t>{'id': 5551489, 'name': 'Test Student', 'created_at': '2025-06-30T08:07:56-04:00', 'sortable_name': 'Student, Test', 'short_name': 'Test Student', 'sis_user_id': None, 'integration_id': None, 'login_id': '35938059d411f275a6b90a199562bb734b74a078'}</t>
+          <t>{'id': 5458119, 'name': 'Marisa Yapello', 'created_at': '2024-11-26T17:06:06-05:00', 'sortable_name': 'Yapello, Marisa', 'short_name': 'Marisa Yapello', 'sis_user_id': 'U52090888', 'integration_id': None, 'login_id': 'myapello12'}</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>46633535</v>
+        <v>46633533</v>
       </c>
       <c r="B50" t="n">
         <v>5551489</v>
@@ -5251,7 +5255,7 @@
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>2142791</v>
+        <v>2143883</v>
       </c>
       <c r="K50" t="n">
         <v>86643</v>
@@ -5299,7 +5303,7 @@
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr">
         <is>
-          <t>CGS2100.002U25</t>
+          <t>CGS2100.021U25</t>
         </is>
       </c>
       <c r="X50" t="inlineStr"/>
@@ -5317,27 +5321,27 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>46662061</v>
+        <v>46633535</v>
       </c>
       <c r="B51" t="n">
-        <v>5009103</v>
+        <v>5551489</v>
       </c>
       <c r="C51" t="n">
         <v>1960586</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>TaEnrollment</t>
+          <t>StudentViewEnrollment</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>2025-07-03T21:31:24Z</t>
+          <t>2025-06-30T12:07:56Z</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>2025-07-07T16:14:24Z</t>
+          <t>2025-06-30T12:07:56Z</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -5359,22 +5363,26 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>TaEnrollment</t>
+          <t>StudentEnrollment</t>
         </is>
       </c>
       <c r="O51" t="n">
-        <v>7745</v>
+        <v>7741</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>2025-07-07T16:45:24Z</t>
+          <t>2025-07-07T14:19:31Z</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="n">
-        <v>560</v>
-      </c>
-      <c r="S51" t="inlineStr"/>
+        <v>824</v>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>{'html_url': 'https://usflearn.instructure.com/courses/1960586/grades/5551489', 'current_grade': None, 'current_score': None, 'final_grade': None, 'final_score': 0.0, 'unposted_current_score': None, 'unposted_current_grade': None, 'unposted_final_score': 0.0, 'unposted_final_grade': None}</t>
+        </is>
+      </c>
       <c r="T51" t="inlineStr">
         <is>
           <t>BU.ISM</t>
@@ -5392,28 +5400,24 @@
         </is>
       </c>
       <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>U88099159</t>
-        </is>
-      </c>
+      <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5009103</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5551489</t>
         </is>
       </c>
       <c r="AA51" t="inlineStr">
         <is>
-          <t>{'id': 5009103, 'name': 'Mohankumar Anem', 'created_at': '2022-09-28T07:04:07-04:00', 'sortable_name': 'Anem, Mohankumar', 'short_name': 'Mohankumar Anem', 'sis_user_id': 'U88099159', 'integration_id': None, 'login_id': 'mohankumar1', 'pronouns': 'He/Him'}</t>
+          <t>{'id': 5551489, 'name': 'Test Student', 'created_at': '2025-06-30T08:07:56-04:00', 'sortable_name': 'Student, Test', 'short_name': 'Test Student', 'sis_user_id': None, 'integration_id': None, 'login_id': '35938059d411f275a6b90a199562bb734b74a078'}</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>46654045</v>
+        <v>46662061</v>
       </c>
       <c r="B52" t="n">
-        <v>4957763</v>
+        <v>5009103</v>
       </c>
       <c r="C52" t="n">
         <v>1960586</v>
@@ -5425,12 +5429,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>2025-07-02T15:56:00Z</t>
+          <t>2025-07-03T21:31:24Z</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>2025-07-02T16:57:52Z</t>
+          <t>2025-07-07T16:14:24Z</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -5460,12 +5464,12 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>2025-07-11T13:11:10Z</t>
+          <t>2025-07-11T20:25:46Z</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="n">
-        <v>129</v>
+        <v>560</v>
       </c>
       <c r="S52" t="inlineStr"/>
       <c r="T52" t="inlineStr">
@@ -5487,26 +5491,26 @@
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>U64219048</t>
+          <t>U88099159</t>
         </is>
       </c>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/4957763</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5009103</t>
         </is>
       </c>
       <c r="AA52" t="inlineStr">
         <is>
-          <t>{'id': 4957763, 'name': 'Andrey Martynenko', 'created_at': '2022-06-01T19:04:09-04:00', 'sortable_name': 'Martynenko, Andrey', 'short_name': 'Andrey Martynenko', 'sis_user_id': 'U64219048', 'integration_id': None, 'login_id': 'andreymartynenko'}</t>
+          <t>{'id': 5009103, 'name': 'Mohankumar Anem', 'created_at': '2022-09-28T07:04:07-04:00', 'sortable_name': 'Anem, Mohankumar', 'short_name': 'Mohankumar Anem', 'sis_user_id': 'U88099159', 'integration_id': None, 'login_id': 'mohankumar1', 'pronouns': 'He/Him'}</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>46662059</v>
+        <v>46654045</v>
       </c>
       <c r="B53" t="n">
-        <v>4876881</v>
+        <v>4957763</v>
       </c>
       <c r="C53" t="n">
         <v>1960586</v>
@@ -5518,12 +5522,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>2025-07-03T21:31:24Z</t>
+          <t>2025-07-02T15:56:00Z</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>2025-07-03T21:44:03Z</t>
+          <t>2025-07-02T16:57:52Z</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -5553,12 +5557,12 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>2025-07-11T19:20:36Z</t>
+          <t>2025-07-19T18:53:50Z</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="n">
-        <v>1451</v>
+        <v>1374</v>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr">
@@ -5580,26 +5584,26 @@
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>U14884292</t>
+          <t>U64219048</t>
         </is>
       </c>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/4876881</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/4957763</t>
         </is>
       </c>
       <c r="AA53" t="inlineStr">
         <is>
-          <t>{'id': 4876881, 'name': 'Bhargav Rishi Medisetti', 'created_at': '2022-01-11T14:04:37-05:00', 'sortable_name': 'Medisetti, Bhargav Rishi', 'short_name': 'Bhargav Rishi Medisetti', 'sis_user_id': 'U14884292', 'integration_id': None, 'login_id': 'bhargavrishi'}</t>
+          <t>{'id': 4957763, 'name': 'Andrey Martynenko', 'created_at': '2022-06-01T19:04:09-04:00', 'sortable_name': 'Martynenko, Andrey', 'short_name': 'Andrey Martynenko', 'sis_user_id': 'U64219048', 'integration_id': None, 'login_id': 'andreymartynenko'}</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>46654047</v>
+        <v>46662059</v>
       </c>
       <c r="B54" t="n">
-        <v>5106229</v>
+        <v>4876881</v>
       </c>
       <c r="C54" t="n">
         <v>1960586</v>
@@ -5611,12 +5615,12 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>2025-07-02T15:56:00Z</t>
+          <t>2025-07-03T21:31:24Z</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>2025-07-02T17:32:01Z</t>
+          <t>2025-07-03T21:44:03Z</t>
         </is>
       </c>
       <c r="G54" t="inlineStr"/>
@@ -5646,12 +5650,12 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>2025-07-08T17:08:06Z</t>
+          <t>2025-07-21T15:10:14Z</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="n">
-        <v>513</v>
+        <v>2459</v>
       </c>
       <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr">
@@ -5673,26 +5677,26 @@
       <c r="X54" t="inlineStr"/>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>U95564252</t>
+          <t>U14884292</t>
         </is>
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5106229</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/4876881</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
         <is>
-          <t>{'id': 5106229, 'name': 'Sidra Riaz', 'created_at': '2023-01-08T07:04:04-05:00', 'sortable_name': 'Riaz, Sidra', 'short_name': 'Sidra Riaz', 'sis_user_id': 'U95564252', 'integration_id': None, 'login_id': 'sidrariaz'}</t>
+          <t>{'id': 4876881, 'name': 'Bhargav Rishi Medisetti', 'created_at': '2022-01-11T14:04:37-05:00', 'sortable_name': 'Medisetti, Bhargav Rishi', 'short_name': 'Bhargav Rishi Medisetti', 'sis_user_id': 'U14884292', 'integration_id': None, 'login_id': 'bhargavrishi'}</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>46662063</v>
+        <v>46654047</v>
       </c>
       <c r="B55" t="n">
-        <v>5061721</v>
+        <v>5106229</v>
       </c>
       <c r="C55" t="n">
         <v>1960586</v>
@@ -5704,12 +5708,12 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>2025-07-03T21:31:24Z</t>
+          <t>2025-07-02T15:56:00Z</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>2025-07-03T21:31:24Z</t>
+          <t>2025-07-02T17:32:01Z</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -5726,7 +5730,7 @@
       </c>
       <c r="M55" t="inlineStr">
         <is>
-          <t>invited</t>
+          <t>active</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
@@ -5737,10 +5741,14 @@
       <c r="O55" t="n">
         <v>7745</v>
       </c>
-      <c r="P55" t="inlineStr"/>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>2025-07-20T23:54:15Z</t>
+        </is>
+      </c>
       <c r="Q55" t="inlineStr"/>
       <c r="R55" t="n">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr">
@@ -5762,43 +5770,43 @@
       <c r="X55" t="inlineStr"/>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>U34561707</t>
+          <t>U95564252</t>
         </is>
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/5061721</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5106229</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
         <is>
-          <t>{'id': 5061721, 'name': 'Neeraja Vedulla', 'created_at': '2022-11-10T13:04:35-05:00', 'sortable_name': 'Vedulla, Neeraja', 'short_name': 'Neeraja Vedulla', 'sis_user_id': 'U34561707', 'integration_id': None, 'login_id': 'neerajavedulla'}</t>
+          <t>{'id': 5106229, 'name': 'Sidra Riaz', 'created_at': '2023-01-08T07:04:04-05:00', 'sortable_name': 'Riaz, Sidra', 'short_name': 'Sidra Riaz', 'sis_user_id': 'U95564252', 'integration_id': None, 'login_id': 'sidrariaz'}</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>45026349</v>
+        <v>46662063</v>
       </c>
       <c r="B56" t="n">
-        <v>964585</v>
+        <v>5061721</v>
       </c>
       <c r="C56" t="n">
         <v>1960586</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>TeacherEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2024-11-26T20:23:56Z</t>
+          <t>2025-07-03T21:31:24Z</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>2024-11-26T20:23:56Z</t>
+          <t>2025-07-03T21:31:24Z</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -5815,25 +5823,21 @@
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>active</t>
+          <t>invited</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>TeacherEnrollment</t>
+          <t>TaEnrollment</t>
         </is>
       </c>
       <c r="O56" t="n">
-        <v>7743</v>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>2025-07-09T14:15:59Z</t>
-        </is>
-      </c>
+        <v>7745</v>
+      </c>
+      <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="n">
-        <v>18839</v>
+        <v>0</v>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr">
@@ -5855,23 +5859,23 @@
       <c r="X56" t="inlineStr"/>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>U84383097</t>
+          <t>U34561707</t>
         </is>
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>https://usflearn.instructure.com/courses/1960586/users/964585</t>
+          <t>https://usflearn.instructure.com/courses/1960586/users/5061721</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
         <is>
-          <t>{'id': 964585, 'name': 'Dennis Walpole (Admin)', 'created_at': '2011-12-31T00:55:24-05:00', 'sortable_name': 'Walpole (Admin), Dennis', 'short_name': 'Dennis Walpole', 'sis_user_id': 'U84383097', 'integration_id': None, 'login_id': 'walpole'}</t>
+          <t>{'id': 5061721, 'name': 'Neeraja Vedulla', 'created_at': '2022-11-10T13:04:35-05:00', 'sortable_name': 'Vedulla, Neeraja', 'short_name': 'Neeraja Vedulla', 'sis_user_id': 'U34561707', 'integration_id': None, 'login_id': 'neerajavedulla'}</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>45026465</v>
+        <v>45026349</v>
       </c>
       <c r="B57" t="n">
         <v>964585</v>
@@ -5886,19 +5890,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>2024-11-26T20:24:00Z</t>
+          <t>2024-11-26T20:23:56Z</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>2025-06-21T20:35:09Z</t>
+          <t>2024-11-26T20:23:56Z</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>2143883</v>
+        <v>2142791</v>
       </c>
       <c r="K57" t="n">
         <v>86643</v>
@@ -5921,12 +5925,12 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>2025-07-09T14:15:59Z</t>
+          <t>2025-07-21T13:29:33Z</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="n">
-        <v>18839</v>
+        <v>22427</v>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr">
@@ -5942,7 +5946,7 @@
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr">
         <is>
-          <t>CGS2100.021U25</t>
+          <t>CGS2100.002U25</t>
         </is>
       </c>
       <c r="X57" t="inlineStr"/>
@@ -5957,6 +5961,99 @@
         </is>
       </c>
       <c r="AA57" t="inlineStr">
+        <is>
+          <t>{'id': 964585, 'name': 'Dennis Walpole (Admin)', 'created_at': '2011-12-31T00:55:24-05:00', 'sortable_name': 'Walpole (Admin), Dennis', 'short_name': 'Dennis Walpole', 'sis_user_id': 'U84383097', 'integration_id': None, 'login_id': 'walpole'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>45026465</v>
+      </c>
+      <c r="B58" t="n">
+        <v>964585</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1960586</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>TeacherEnrollment</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>2024-11-26T20:24:00Z</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2025-06-21T20:35:09Z</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>2143883</v>
+      </c>
+      <c r="K58" t="n">
+        <v>86643</v>
+      </c>
+      <c r="L58" t="b">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>active</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>TeacherEnrollment</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
+        <v>7743</v>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>2025-07-21T13:29:33Z</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="n">
+        <v>22427</v>
+      </c>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr">
+        <is>
+          <t>BU.ISM</t>
+        </is>
+      </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>CGS2100.002U25</t>
+        </is>
+      </c>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr">
+        <is>
+          <t>CGS2100.021U25</t>
+        </is>
+      </c>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr">
+        <is>
+          <t>U84383097</t>
+        </is>
+      </c>
+      <c r="Z58" t="inlineStr">
+        <is>
+          <t>https://usflearn.instructure.com/courses/1960586/users/964585</t>
+        </is>
+      </c>
+      <c r="AA58" t="inlineStr">
         <is>
           <t>{'id': 964585, 'name': 'Dennis Walpole (Admin)', 'created_at': '2011-12-31T00:55:24-05:00', 'sortable_name': 'Walpole (Admin), Dennis', 'short_name': 'Dennis Walpole', 'sis_user_id': 'U84383097', 'integration_id': None, 'login_id': 'walpole'}</t>
         </is>
